--- a/behavioural_data/behavior_update.xlsx
+++ b/behavioural_data/behavior_update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/au540169/Desktop/MINDLAB2016_MR-SensCognFromNeural/neuroMET/behavioural_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550465EA-C470-7547-BFCB-CE93F35BC80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CE34AD-F7DC-A440-A6F1-1468E6E00CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14720" tabRatio="988" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="17">
   <si>
     <t>Scanner ID</t>
   </si>
@@ -83,83 +83,7 @@
     <t>GS</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes </t>
-  </si>
-  <si>
-    <t>frontal artefacts (dental braces)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scores were left blank </t>
-  </si>
-  <si>
-    <t>MET test done before but did not find it</t>
-  </si>
-  <si>
-    <t>take second version of T1</t>
-  </si>
-  <si>
-    <t>no resting state scans</t>
-  </si>
-  <si>
-    <t>Outside noise during testing</t>
-  </si>
-  <si>
-    <t>Had 50-60 gr of alchol before entering the scanner</t>
-  </si>
-  <si>
-    <t>lost pulse recording during resting-state or MPM (he doesn't know when). Exclude if you are using 
-pulse recording as covariate.</t>
-  </si>
-  <si>
-    <t>no reconstruction</t>
-  </si>
-  <si>
-    <t>reconstruction problem surin first 12 minutues rs-fmri. Scan repeated immediately</t>
-  </si>
-  <si>
-    <t>scanner error in the first rs-fMRI. reboot and scout + sequence restarted</t>
-  </si>
-  <si>
-    <t>MPM: take the one obtained in the second session.</t>
-  </si>
-  <si>
-    <t>For the MET test, the answers for both parts were scored on rhythm paper.</t>
-  </si>
-  <si>
-    <t>retrospective reconstruction failed. Possibly body movement issues</t>
-  </si>
-  <si>
-    <t>exclude</t>
-  </si>
-  <si>
-    <t>fallen asleep during rs-FMRI. Exclude from this analysis</t>
-  </si>
-  <si>
-    <t>rs-FMRI restarted. Possibly bad shim in the cancelled one. Use last two.</t>
-  </si>
-  <si>
-    <t>coughing during rs-fMRI (had to be restarted twice). Problems with motion. 4 scans missing from the second run</t>
-  </si>
-  <si>
-    <t>take only second diffusion scan</t>
-  </si>
-  <si>
-    <t>No rhythm</t>
-  </si>
-  <si>
-    <t>reconstruction failed</t>
-  </si>
-  <si>
-    <t>noise around dental brace.Check if it is a problem in the T1.</t>
-  </si>
-  <si>
-    <t>noise from braces. Small frontal, wavy artefacts in MT. Only present in few images (perhaps identify and discard them)</t>
-  </si>
-  <si>
     <t>NaN</t>
-  </si>
-  <si>
-    <t>Pilot</t>
   </si>
   <si>
     <t>-</t>
@@ -290,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,9 +255,6 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -726,11 +647,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA272"/>
+  <dimension ref="A1:Z272"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -742,12 +663,10 @@
     <col min="7" max="7" width="34.6640625"/>
     <col min="8" max="8" width="24"/>
     <col min="9" max="9" width="31.1640625"/>
-    <col min="10" max="15" width="14.6640625"/>
-    <col min="16" max="16" width="102.33203125"/>
-    <col min="17" max="1022" width="14.6640625"/>
+    <col min="10" max="1021" width="14.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,9 +712,7 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -806,9 +723,8 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>44</v>
       </c>
@@ -869,9 +785,8 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>45</v>
       </c>
@@ -932,9 +847,8 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>46</v>
       </c>
@@ -995,9 +909,8 @@
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>47</v>
       </c>
@@ -1058,9 +971,8 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>48</v>
       </c>
@@ -1121,9 +1033,8 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>49</v>
       </c>
@@ -1184,9 +1095,8 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>50</v>
       </c>
@@ -1247,9 +1157,8 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>52</v>
       </c>
@@ -1310,9 +1219,8 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>53</v>
       </c>
@@ -1373,9 +1281,8 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>54</v>
       </c>
@@ -1425,9 +1332,7 @@
       <c r="O11" s="4">
         <v>50</v>
       </c>
-      <c r="P11" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
@@ -1438,9 +1343,8 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>55</v>
       </c>
@@ -1501,9 +1405,8 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>56</v>
       </c>
@@ -1553,9 +1456,7 @@
       <c r="O13" s="10">
         <v>53</v>
       </c>
-      <c r="P13" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
@@ -1566,9 +1467,8 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-    </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>57</v>
       </c>
@@ -1618,9 +1518,7 @@
       <c r="O14" s="4">
         <v>90</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
@@ -1631,9 +1529,8 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-    </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>58</v>
       </c>
@@ -1694,9 +1591,8 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>59</v>
       </c>
@@ -1757,9 +1653,8 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-    </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>60</v>
       </c>
@@ -1820,9 +1715,8 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-    </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>61</v>
       </c>
@@ -1883,9 +1777,8 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-    </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>62</v>
       </c>
@@ -1946,9 +1839,8 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-    </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>63</v>
       </c>
@@ -2009,9 +1901,8 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-    </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>64</v>
       </c>
@@ -2072,9 +1963,8 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-    </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>65</v>
       </c>
@@ -2135,9 +2025,8 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-    </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>66</v>
       </c>
@@ -2187,9 +2076,7 @@
       <c r="O23" s="4">
         <v>39</v>
       </c>
-      <c r="P23" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
@@ -2200,9 +2087,8 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-    </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>67</v>
       </c>
@@ -2263,9 +2149,8 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-    </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>68</v>
       </c>
@@ -2315,9 +2200,7 @@
       <c r="O25" s="4">
         <v>67</v>
       </c>
-      <c r="P25" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
@@ -2328,9 +2211,8 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-    </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>70</v>
       </c>
@@ -2391,9 +2273,8 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-    </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>71</v>
       </c>
@@ -2443,9 +2324,7 @@
       <c r="O27" s="4">
         <v>107</v>
       </c>
-      <c r="P27" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
@@ -2456,9 +2335,8 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-    </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>73</v>
       </c>
@@ -2519,9 +2397,8 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-    </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>74</v>
       </c>
@@ -2582,9 +2459,8 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-    </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>75</v>
       </c>
@@ -2644,9 +2520,8 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-    </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>76</v>
       </c>
@@ -2707,9 +2582,8 @@
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-    </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>77</v>
       </c>
@@ -2770,9 +2644,8 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-    </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>78</v>
       </c>
@@ -2833,9 +2706,8 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-    </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>79</v>
       </c>
@@ -2896,9 +2768,8 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-    </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>80</v>
       </c>
@@ -2959,9 +2830,8 @@
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-    </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>81</v>
       </c>
@@ -3022,9 +2892,8 @@
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-    </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>82</v>
       </c>
@@ -3074,9 +2943,7 @@
       <c r="O37" s="4">
         <v>81</v>
       </c>
-      <c r="P37" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
@@ -3087,9 +2954,8 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-    </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>83</v>
       </c>
@@ -3138,9 +3004,7 @@
       <c r="O38" s="4">
         <v>82</v>
       </c>
-      <c r="P38" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
@@ -3151,9 +3015,8 @@
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
-    </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>84</v>
       </c>
@@ -3203,9 +3066,7 @@
       <c r="O39" s="11">
         <v>33</v>
       </c>
-      <c r="P39" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
@@ -3216,9 +3077,8 @@
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
-      <c r="AA39" s="4"/>
-    </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>85</v>
       </c>
@@ -3279,9 +3139,8 @@
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
-      <c r="AA40" s="4"/>
-    </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>86</v>
       </c>
@@ -3342,9 +3201,8 @@
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
-      <c r="AA41" s="4"/>
-    </row>
-    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>87</v>
       </c>
@@ -3405,9 +3263,8 @@
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
-      <c r="AA42" s="4"/>
-    </row>
-    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>88</v>
       </c>
@@ -3468,9 +3325,8 @@
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
-      <c r="AA43" s="4"/>
-    </row>
-    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>89</v>
       </c>
@@ -3531,9 +3387,8 @@
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-    </row>
-    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>90</v>
       </c>
@@ -3594,9 +3449,8 @@
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
-      <c r="AA45" s="4"/>
-    </row>
-    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>91</v>
       </c>
@@ -3657,9 +3511,8 @@
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
-      <c r="AA46" s="4"/>
-    </row>
-    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>92</v>
       </c>
@@ -3720,9 +3573,8 @@
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
-      <c r="AA47" s="4"/>
-    </row>
-    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>93</v>
       </c>
@@ -3783,9 +3635,8 @@
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
-      <c r="AA48" s="4"/>
-    </row>
-    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>94</v>
       </c>
@@ -3846,9 +3697,8 @@
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
-      <c r="AA49" s="4"/>
-    </row>
-    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>95</v>
       </c>
@@ -3909,9 +3759,8 @@
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
-      <c r="AA50" s="4"/>
-    </row>
-    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>96</v>
       </c>
@@ -3972,9 +3821,8 @@
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
-      <c r="AA51" s="4"/>
-    </row>
-    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>97</v>
       </c>
@@ -4035,9 +3883,8 @@
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
-    </row>
-    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>100</v>
       </c>
@@ -4098,9 +3945,8 @@
       <c r="X53" s="4"/>
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-    </row>
-    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>102</v>
       </c>
@@ -4161,9 +4007,8 @@
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
-      <c r="AA54" s="4"/>
-    </row>
-    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>104</v>
       </c>
@@ -4224,9 +4069,8 @@
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
-      <c r="AA55" s="4"/>
-    </row>
-    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>105</v>
       </c>
@@ -4287,9 +4131,8 @@
       <c r="X56" s="4"/>
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
-      <c r="AA56" s="4"/>
-    </row>
-    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>106</v>
       </c>
@@ -4350,9 +4193,8 @@
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
-      <c r="AA57" s="4"/>
-    </row>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>107</v>
       </c>
@@ -4402,9 +4244,7 @@
       <c r="O58" s="4">
         <v>49</v>
       </c>
-      <c r="P58" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
@@ -4415,9 +4255,8 @@
       <c r="X58" s="4"/>
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
-      <c r="AA58" s="4"/>
-    </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>108</v>
       </c>
@@ -4478,9 +4317,8 @@
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
-      <c r="AA59" s="4"/>
-    </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>109</v>
       </c>
@@ -4541,9 +4379,8 @@
       <c r="X60" s="4"/>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
-      <c r="AA60" s="4"/>
-    </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>110</v>
       </c>
@@ -4604,9 +4441,8 @@
       <c r="X61" s="4"/>
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
-      <c r="AA61" s="4"/>
-    </row>
-    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>111</v>
       </c>
@@ -4667,9 +4503,8 @@
       <c r="X62" s="4"/>
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
-      <c r="AA62" s="4"/>
-    </row>
-    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>112</v>
       </c>
@@ -4730,9 +4565,8 @@
       <c r="X63" s="4"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
-      <c r="AA63" s="4"/>
-    </row>
-    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>113</v>
       </c>
@@ -4793,9 +4627,8 @@
       <c r="X64" s="4"/>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
-      <c r="AA64" s="4"/>
-    </row>
-    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>115</v>
       </c>
@@ -4856,9 +4689,8 @@
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
-      <c r="AA65" s="4"/>
-    </row>
-    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>116</v>
       </c>
@@ -4919,9 +4751,8 @@
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
-      <c r="AA66" s="4"/>
-    </row>
-    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>117</v>
       </c>
@@ -4982,9 +4813,8 @@
       <c r="X67" s="4"/>
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
-      <c r="AA67" s="4"/>
-    </row>
-    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>119</v>
       </c>
@@ -5045,9 +4875,8 @@
       <c r="X68" s="4"/>
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
-      <c r="AA68" s="4"/>
-    </row>
-    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>120</v>
       </c>
@@ -5097,9 +4926,7 @@
       <c r="O69" s="4">
         <v>57</v>
       </c>
-      <c r="P69" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
@@ -5110,9 +4937,8 @@
       <c r="X69" s="4"/>
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
-      <c r="AA69" s="4"/>
-    </row>
-    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>121</v>
       </c>
@@ -5173,9 +4999,8 @@
       <c r="X70" s="4"/>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
-      <c r="AA70" s="4"/>
-    </row>
-    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>122</v>
       </c>
@@ -5236,9 +5061,8 @@
       <c r="X71" s="4"/>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
-      <c r="AA71" s="4"/>
-    </row>
-    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>124</v>
       </c>
@@ -5299,9 +5123,8 @@
       <c r="X72" s="4"/>
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
-      <c r="AA72" s="4"/>
-    </row>
-    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>125</v>
       </c>
@@ -5362,9 +5185,8 @@
       <c r="X73" s="4"/>
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
-      <c r="AA73" s="4"/>
-    </row>
-    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>127</v>
       </c>
@@ -5425,9 +5247,8 @@
       <c r="X74" s="4"/>
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
-      <c r="AA74" s="4"/>
-    </row>
-    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>128</v>
       </c>
@@ -5488,9 +5309,8 @@
       <c r="X75" s="4"/>
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
-      <c r="AA75" s="4"/>
-    </row>
-    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>129</v>
       </c>
@@ -5551,9 +5371,8 @@
       <c r="X76" s="4"/>
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
-      <c r="AA76" s="4"/>
-    </row>
-    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>130</v>
       </c>
@@ -5614,9 +5433,8 @@
       <c r="X77" s="4"/>
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
-      <c r="AA77" s="4"/>
-    </row>
-    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>131</v>
       </c>
@@ -5677,9 +5495,8 @@
       <c r="X78" s="4"/>
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
-      <c r="AA78" s="4"/>
-    </row>
-    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>132</v>
       </c>
@@ -5740,9 +5557,8 @@
       <c r="X79" s="4"/>
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
-      <c r="AA79" s="4"/>
-    </row>
-    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>133</v>
       </c>
@@ -5803,9 +5619,8 @@
       <c r="X80" s="4"/>
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
-      <c r="AA80" s="4"/>
-    </row>
-    <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>134</v>
       </c>
@@ -5866,9 +5681,8 @@
       <c r="X81" s="4"/>
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
-      <c r="AA81" s="4"/>
-    </row>
-    <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>135</v>
       </c>
@@ -5929,9 +5743,8 @@
       <c r="X82" s="4"/>
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
-      <c r="AA82" s="4"/>
-    </row>
-    <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>136</v>
       </c>
@@ -5992,9 +5805,8 @@
       <c r="X83" s="4"/>
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
-      <c r="AA83" s="4"/>
-    </row>
-    <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>137</v>
       </c>
@@ -6055,10 +5867,9 @@
       <c r="X84" s="4"/>
       <c r="Y84" s="4"/>
       <c r="Z84" s="4"/>
-      <c r="AA84" s="4"/>
-    </row>
-    <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="16">
+    </row>
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="15">
         <v>138</v>
       </c>
       <c r="B85" s="6">
@@ -6107,9 +5918,7 @@
       <c r="O85" s="11">
         <v>50</v>
       </c>
-      <c r="P85" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
@@ -6120,9 +5929,8 @@
       <c r="X85" s="4"/>
       <c r="Y85" s="4"/>
       <c r="Z85" s="4"/>
-      <c r="AA85" s="4"/>
-    </row>
-    <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>139</v>
       </c>
@@ -6183,9 +5991,8 @@
       <c r="X86" s="4"/>
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
-      <c r="AA86" s="4"/>
-    </row>
-    <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>140</v>
       </c>
@@ -6246,9 +6053,8 @@
       <c r="X87" s="4"/>
       <c r="Y87" s="4"/>
       <c r="Z87" s="4"/>
-      <c r="AA87" s="4"/>
-    </row>
-    <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>141</v>
       </c>
@@ -6309,9 +6115,8 @@
       <c r="X88" s="4"/>
       <c r="Y88" s="4"/>
       <c r="Z88" s="4"/>
-      <c r="AA88" s="4"/>
-    </row>
-    <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>143</v>
       </c>
@@ -6372,9 +6177,8 @@
       <c r="X89" s="4"/>
       <c r="Y89" s="4"/>
       <c r="Z89" s="4"/>
-      <c r="AA89" s="4"/>
-    </row>
-    <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>144</v>
       </c>
@@ -6435,9 +6239,8 @@
       <c r="X90" s="4"/>
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
-      <c r="AA90" s="4"/>
-    </row>
-    <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>145</v>
       </c>
@@ -6498,9 +6301,8 @@
       <c r="X91" s="4"/>
       <c r="Y91" s="4"/>
       <c r="Z91" s="4"/>
-      <c r="AA91" s="4"/>
-    </row>
-    <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>146</v>
       </c>
@@ -6550,9 +6352,7 @@
       <c r="O92" s="11">
         <v>75</v>
       </c>
-      <c r="P92" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="P92" s="4"/>
       <c r="Q92" s="4"/>
       <c r="R92" s="4"/>
       <c r="S92" s="4"/>
@@ -6563,9 +6363,8 @@
       <c r="X92" s="4"/>
       <c r="Y92" s="4"/>
       <c r="Z92" s="4"/>
-      <c r="AA92" s="4"/>
-    </row>
-    <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>147</v>
       </c>
@@ -6585,7 +6384,7 @@
       <c r="F93" s="4">
         <v>35</v>
       </c>
-      <c r="G93" s="17">
+      <c r="G93" s="16">
         <f t="shared" si="7"/>
         <v>67.307692307692307</v>
       </c>
@@ -6626,9 +6425,8 @@
       <c r="X93" s="4"/>
       <c r="Y93" s="4"/>
       <c r="Z93" s="4"/>
-      <c r="AA93" s="4"/>
-    </row>
-    <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>148</v>
       </c>
@@ -6689,9 +6487,8 @@
       <c r="X94" s="4"/>
       <c r="Y94" s="4"/>
       <c r="Z94" s="4"/>
-      <c r="AA94" s="4"/>
-    </row>
-    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>149</v>
       </c>
@@ -6752,9 +6549,8 @@
       <c r="X95" s="4"/>
       <c r="Y95" s="4"/>
       <c r="Z95" s="4"/>
-      <c r="AA95" s="4"/>
-    </row>
-    <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>150</v>
       </c>
@@ -6815,9 +6611,8 @@
       <c r="X96" s="4"/>
       <c r="Y96" s="4"/>
       <c r="Z96" s="4"/>
-      <c r="AA96" s="4"/>
-    </row>
-    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>151</v>
       </c>
@@ -6878,9 +6673,8 @@
       <c r="X97" s="4"/>
       <c r="Y97" s="4"/>
       <c r="Z97" s="4"/>
-      <c r="AA97" s="4"/>
-    </row>
-    <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>153</v>
       </c>
@@ -6941,9 +6735,8 @@
       <c r="X98" s="4"/>
       <c r="Y98" s="4"/>
       <c r="Z98" s="4"/>
-      <c r="AA98" s="4"/>
-    </row>
-    <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>155</v>
       </c>
@@ -7004,9 +6797,8 @@
       <c r="X99" s="4"/>
       <c r="Y99" s="4"/>
       <c r="Z99" s="4"/>
-      <c r="AA99" s="4"/>
-    </row>
-    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>156</v>
       </c>
@@ -7067,9 +6859,8 @@
       <c r="X100" s="4"/>
       <c r="Y100" s="4"/>
       <c r="Z100" s="4"/>
-      <c r="AA100" s="4"/>
-    </row>
-    <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>157</v>
       </c>
@@ -7130,9 +6921,8 @@
       <c r="X101" s="4"/>
       <c r="Y101" s="4"/>
       <c r="Z101" s="4"/>
-      <c r="AA101" s="4"/>
-    </row>
-    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>158</v>
       </c>
@@ -7193,9 +6983,8 @@
       <c r="X102" s="4"/>
       <c r="Y102" s="4"/>
       <c r="Z102" s="4"/>
-      <c r="AA102" s="4"/>
-    </row>
-    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>160</v>
       </c>
@@ -7256,9 +7045,8 @@
       <c r="X103" s="4"/>
       <c r="Y103" s="4"/>
       <c r="Z103" s="4"/>
-      <c r="AA103" s="4"/>
-    </row>
-    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>161</v>
       </c>
@@ -7319,9 +7107,8 @@
       <c r="X104" s="4"/>
       <c r="Y104" s="4"/>
       <c r="Z104" s="4"/>
-      <c r="AA104" s="4"/>
-    </row>
-    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>162</v>
       </c>
@@ -7382,9 +7169,8 @@
       <c r="X105" s="4"/>
       <c r="Y105" s="4"/>
       <c r="Z105" s="4"/>
-      <c r="AA105" s="4"/>
-    </row>
-    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>163</v>
       </c>
@@ -7445,9 +7231,8 @@
       <c r="X106" s="4"/>
       <c r="Y106" s="4"/>
       <c r="Z106" s="4"/>
-      <c r="AA106" s="4"/>
-    </row>
-    <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4">
         <v>164</v>
       </c>
@@ -7508,9 +7293,8 @@
       <c r="X107" s="4"/>
       <c r="Y107" s="4"/>
       <c r="Z107" s="4"/>
-      <c r="AA107" s="4"/>
-    </row>
-    <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>165</v>
       </c>
@@ -7571,9 +7355,8 @@
       <c r="X108" s="4"/>
       <c r="Y108" s="4"/>
       <c r="Z108" s="4"/>
-      <c r="AA108" s="4"/>
-    </row>
-    <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>167</v>
       </c>
@@ -7634,9 +7417,8 @@
       <c r="X109" s="4"/>
       <c r="Y109" s="4"/>
       <c r="Z109" s="4"/>
-      <c r="AA109" s="4"/>
-    </row>
-    <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>169</v>
       </c>
@@ -7697,9 +7479,8 @@
       <c r="X110" s="4"/>
       <c r="Y110" s="4"/>
       <c r="Z110" s="4"/>
-      <c r="AA110" s="4"/>
-    </row>
-    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>171</v>
       </c>
@@ -7760,9 +7541,8 @@
       <c r="X111" s="4"/>
       <c r="Y111" s="4"/>
       <c r="Z111" s="4"/>
-      <c r="AA111" s="4"/>
-    </row>
-    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>172</v>
       </c>
@@ -7823,9 +7603,8 @@
       <c r="X112" s="4"/>
       <c r="Y112" s="4"/>
       <c r="Z112" s="4"/>
-      <c r="AA112" s="4"/>
-    </row>
-    <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>173</v>
       </c>
@@ -7886,9 +7665,8 @@
       <c r="X113" s="4"/>
       <c r="Y113" s="4"/>
       <c r="Z113" s="4"/>
-      <c r="AA113" s="4"/>
-    </row>
-    <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>174</v>
       </c>
@@ -7949,9 +7727,8 @@
       <c r="X114" s="4"/>
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
-      <c r="AA114" s="4"/>
-    </row>
-    <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>175</v>
       </c>
@@ -8012,9 +7789,8 @@
       <c r="X115" s="4"/>
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
-      <c r="AA115" s="4"/>
-    </row>
-    <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>182</v>
       </c>
@@ -8075,9 +7851,8 @@
       <c r="X116" s="4"/>
       <c r="Y116" s="4"/>
       <c r="Z116" s="4"/>
-      <c r="AA116" s="4"/>
-    </row>
-    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>183</v>
       </c>
@@ -8127,9 +7902,7 @@
       <c r="O117" s="4">
         <v>79</v>
       </c>
-      <c r="P117" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="P117" s="4"/>
       <c r="Q117" s="4"/>
       <c r="R117" s="4"/>
       <c r="S117" s="4"/>
@@ -8140,9 +7913,8 @@
       <c r="X117" s="4"/>
       <c r="Y117" s="4"/>
       <c r="Z117" s="4"/>
-      <c r="AA117" s="4"/>
-    </row>
-    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>184</v>
       </c>
@@ -8203,9 +7975,8 @@
       <c r="X118" s="4"/>
       <c r="Y118" s="4"/>
       <c r="Z118" s="4"/>
-      <c r="AA118" s="4"/>
-    </row>
-    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>188</v>
       </c>
@@ -8266,9 +8037,8 @@
       <c r="X119" s="4"/>
       <c r="Y119" s="4"/>
       <c r="Z119" s="4"/>
-      <c r="AA119" s="4"/>
-    </row>
-    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>189</v>
       </c>
@@ -8329,9 +8099,8 @@
       <c r="X120" s="4"/>
       <c r="Y120" s="4"/>
       <c r="Z120" s="4"/>
-      <c r="AA120" s="4"/>
-    </row>
-    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>190</v>
       </c>
@@ -8392,9 +8161,8 @@
       <c r="X121" s="4"/>
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
-      <c r="AA121" s="4"/>
-    </row>
-    <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>191</v>
       </c>
@@ -8455,9 +8223,8 @@
       <c r="X122" s="4"/>
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
-      <c r="AA122" s="4"/>
-    </row>
-    <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>192</v>
       </c>
@@ -8518,9 +8285,8 @@
       <c r="X123" s="4"/>
       <c r="Y123" s="4"/>
       <c r="Z123" s="4"/>
-      <c r="AA123" s="4"/>
-    </row>
-    <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>193</v>
       </c>
@@ -8581,9 +8347,8 @@
       <c r="X124" s="4"/>
       <c r="Y124" s="4"/>
       <c r="Z124" s="4"/>
-      <c r="AA124" s="4"/>
-    </row>
-    <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>194</v>
       </c>
@@ -8644,9 +8409,8 @@
       <c r="X125" s="4"/>
       <c r="Y125" s="4"/>
       <c r="Z125" s="4"/>
-      <c r="AA125" s="4"/>
-    </row>
-    <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>196</v>
       </c>
@@ -8696,9 +8460,7 @@
       <c r="O126" s="4">
         <v>109</v>
       </c>
-      <c r="P126" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="P126" s="4"/>
       <c r="Q126" s="4"/>
       <c r="R126" s="4"/>
       <c r="S126" s="4"/>
@@ -8709,9 +8471,8 @@
       <c r="X126" s="4"/>
       <c r="Y126" s="4"/>
       <c r="Z126" s="4"/>
-      <c r="AA126" s="4"/>
-    </row>
-    <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>197</v>
       </c>
@@ -8772,9 +8533,8 @@
       <c r="X127" s="4"/>
       <c r="Y127" s="4"/>
       <c r="Z127" s="4"/>
-      <c r="AA127" s="4"/>
-    </row>
-    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>199</v>
       </c>
@@ -8835,9 +8595,8 @@
       <c r="X128" s="4"/>
       <c r="Y128" s="4"/>
       <c r="Z128" s="4"/>
-      <c r="AA128" s="4"/>
-    </row>
-    <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>200</v>
       </c>
@@ -8898,9 +8657,8 @@
       <c r="X129" s="4"/>
       <c r="Y129" s="4"/>
       <c r="Z129" s="4"/>
-      <c r="AA129" s="4"/>
-    </row>
-    <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>201</v>
       </c>
@@ -8961,9 +8719,8 @@
       <c r="X130" s="4"/>
       <c r="Y130" s="4"/>
       <c r="Z130" s="4"/>
-      <c r="AA130" s="4"/>
-    </row>
-    <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>202</v>
       </c>
@@ -9024,9 +8781,8 @@
       <c r="X131" s="4"/>
       <c r="Y131" s="4"/>
       <c r="Z131" s="4"/>
-      <c r="AA131" s="4"/>
-    </row>
-    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>203</v>
       </c>
@@ -9087,9 +8843,8 @@
       <c r="X132" s="4"/>
       <c r="Y132" s="4"/>
       <c r="Z132" s="4"/>
-      <c r="AA132" s="4"/>
-    </row>
-    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>206</v>
       </c>
@@ -9150,9 +8905,8 @@
       <c r="X133" s="4"/>
       <c r="Y133" s="4"/>
       <c r="Z133" s="4"/>
-      <c r="AA133" s="4"/>
-    </row>
-    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>207</v>
       </c>
@@ -9213,9 +8967,8 @@
       <c r="X134" s="4"/>
       <c r="Y134" s="4"/>
       <c r="Z134" s="4"/>
-      <c r="AA134" s="4"/>
-    </row>
-    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>208</v>
       </c>
@@ -9276,9 +9029,8 @@
       <c r="X135" s="4"/>
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
-      <c r="AA135" s="4"/>
-    </row>
-    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>209</v>
       </c>
@@ -9339,9 +9091,8 @@
       <c r="X136" s="4"/>
       <c r="Y136" s="4"/>
       <c r="Z136" s="4"/>
-      <c r="AA136" s="4"/>
-    </row>
-    <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>210</v>
       </c>
@@ -9402,9 +9153,8 @@
       <c r="X137" s="4"/>
       <c r="Y137" s="4"/>
       <c r="Z137" s="4"/>
-      <c r="AA137" s="4"/>
-    </row>
-    <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>211</v>
       </c>
@@ -9465,9 +9215,8 @@
       <c r="X138" s="4"/>
       <c r="Y138" s="4"/>
       <c r="Z138" s="4"/>
-      <c r="AA138" s="4"/>
-    </row>
-    <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>212</v>
       </c>
@@ -9528,9 +9277,8 @@
       <c r="X139" s="4"/>
       <c r="Y139" s="4"/>
       <c r="Z139" s="4"/>
-      <c r="AA139" s="4"/>
-    </row>
-    <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>213</v>
       </c>
@@ -9591,9 +9339,8 @@
       <c r="X140" s="4"/>
       <c r="Y140" s="4"/>
       <c r="Z140" s="4"/>
-      <c r="AA140" s="4"/>
-    </row>
-    <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>214</v>
       </c>
@@ -9654,9 +9401,8 @@
       <c r="X141" s="4"/>
       <c r="Y141" s="4"/>
       <c r="Z141" s="4"/>
-      <c r="AA141" s="4"/>
-    </row>
-    <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>215</v>
       </c>
@@ -9717,9 +9463,8 @@
       <c r="X142" s="4"/>
       <c r="Y142" s="4"/>
       <c r="Z142" s="4"/>
-      <c r="AA142" s="4"/>
-    </row>
-    <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>216</v>
       </c>
@@ -9769,9 +9514,8 @@
       <c r="O143" s="4">
         <v>53</v>
       </c>
-      <c r="P143" s="4"/>
-    </row>
-    <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>217</v>
       </c>
@@ -9832,9 +9576,8 @@
       <c r="X144" s="4"/>
       <c r="Y144" s="4"/>
       <c r="Z144" s="4"/>
-      <c r="AA144" s="4"/>
-    </row>
-    <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>218</v>
       </c>
@@ -9895,9 +9638,8 @@
       <c r="X145" s="4"/>
       <c r="Y145" s="4"/>
       <c r="Z145" s="4"/>
-      <c r="AA145" s="4"/>
-    </row>
-    <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>219</v>
       </c>
@@ -9958,9 +9700,8 @@
       <c r="X146" s="4"/>
       <c r="Y146" s="4"/>
       <c r="Z146" s="4"/>
-      <c r="AA146" s="4"/>
-    </row>
-    <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>221</v>
       </c>
@@ -10021,10 +9762,9 @@
       <c r="X147" s="4"/>
       <c r="Y147" s="4"/>
       <c r="Z147" s="4"/>
-      <c r="AA147" s="4"/>
-    </row>
-    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="16">
+    </row>
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="15">
         <v>222</v>
       </c>
       <c r="B148" s="9">
@@ -10073,9 +9813,7 @@
       <c r="O148" s="4">
         <v>63</v>
       </c>
-      <c r="P148" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="P148" s="4"/>
       <c r="Q148" s="4"/>
       <c r="R148" s="4"/>
       <c r="S148" s="4"/>
@@ -10086,9 +9824,8 @@
       <c r="X148" s="4"/>
       <c r="Y148" s="4"/>
       <c r="Z148" s="4"/>
-      <c r="AA148" s="4"/>
-    </row>
-    <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>223</v>
       </c>
@@ -10149,9 +9886,8 @@
       <c r="X149" s="4"/>
       <c r="Y149" s="4"/>
       <c r="Z149" s="4"/>
-      <c r="AA149" s="4"/>
-    </row>
-    <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5">
         <v>224</v>
       </c>
@@ -10201,9 +9937,7 @@
       <c r="O150" s="4">
         <v>53</v>
       </c>
-      <c r="P150" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="P150" s="4"/>
       <c r="Q150" s="4"/>
       <c r="R150" s="4"/>
       <c r="S150" s="4"/>
@@ -10214,9 +9948,8 @@
       <c r="X150" s="4"/>
       <c r="Y150" s="4"/>
       <c r="Z150" s="4"/>
-      <c r="AA150" s="4"/>
-    </row>
-    <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>225</v>
       </c>
@@ -10277,9 +10010,8 @@
       <c r="X151" s="4"/>
       <c r="Y151" s="4"/>
       <c r="Z151" s="4"/>
-      <c r="AA151" s="4"/>
-    </row>
-    <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>226</v>
       </c>
@@ -10340,9 +10072,8 @@
       <c r="X152" s="4"/>
       <c r="Y152" s="4"/>
       <c r="Z152" s="4"/>
-      <c r="AA152" s="4"/>
-    </row>
-    <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>227</v>
       </c>
@@ -10403,9 +10134,8 @@
       <c r="X153" s="4"/>
       <c r="Y153" s="4"/>
       <c r="Z153" s="4"/>
-      <c r="AA153" s="4"/>
-    </row>
-    <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>229</v>
       </c>
@@ -10454,9 +10184,7 @@
       <c r="O154" s="4">
         <v>33</v>
       </c>
-      <c r="P154" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="P154" s="4"/>
       <c r="Q154" s="4"/>
       <c r="R154" s="4"/>
       <c r="S154" s="4"/>
@@ -10467,9 +10195,8 @@
       <c r="X154" s="4"/>
       <c r="Y154" s="4"/>
       <c r="Z154" s="4"/>
-      <c r="AA154" s="4"/>
-    </row>
-    <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>230</v>
       </c>
@@ -10530,9 +10257,8 @@
       <c r="X155" s="4"/>
       <c r="Y155" s="4"/>
       <c r="Z155" s="4"/>
-      <c r="AA155" s="4"/>
-    </row>
-    <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>231</v>
       </c>
@@ -10593,9 +10319,8 @@
       <c r="X156" s="4"/>
       <c r="Y156" s="4"/>
       <c r="Z156" s="4"/>
-      <c r="AA156" s="4"/>
-    </row>
-    <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>232</v>
       </c>
@@ -10656,9 +10381,8 @@
       <c r="X157" s="4"/>
       <c r="Y157" s="4"/>
       <c r="Z157" s="4"/>
-      <c r="AA157" s="4"/>
-    </row>
-    <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>233</v>
       </c>
@@ -10719,10 +10443,9 @@
       <c r="X158" s="4"/>
       <c r="Y158" s="4"/>
       <c r="Z158" s="4"/>
-      <c r="AA158" s="4"/>
-    </row>
-    <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="16">
+    </row>
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="15">
         <v>235</v>
       </c>
       <c r="B159" s="6">
@@ -10771,9 +10494,7 @@
       <c r="O159" s="4">
         <v>61</v>
       </c>
-      <c r="P159" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="P159" s="4"/>
       <c r="Q159" s="4"/>
       <c r="R159" s="4"/>
       <c r="S159" s="4"/>
@@ -10784,9 +10505,8 @@
       <c r="X159" s="4"/>
       <c r="Y159" s="4"/>
       <c r="Z159" s="4"/>
-      <c r="AA159" s="4"/>
-    </row>
-    <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>236</v>
       </c>
@@ -10847,9 +10567,8 @@
       <c r="X160" s="4"/>
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
-      <c r="AA160" s="4"/>
-    </row>
-    <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="13">
         <v>237</v>
       </c>
@@ -10899,9 +10618,7 @@
       <c r="O161" s="4">
         <v>50</v>
       </c>
-      <c r="P161" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="P161" s="4"/>
       <c r="Q161" s="4"/>
       <c r="R161" s="4"/>
       <c r="S161" s="4"/>
@@ -10912,9 +10629,8 @@
       <c r="X161" s="4"/>
       <c r="Y161" s="4"/>
       <c r="Z161" s="4"/>
-      <c r="AA161" s="4"/>
-    </row>
-    <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>238</v>
       </c>
@@ -10975,9 +10691,8 @@
       <c r="X162" s="4"/>
       <c r="Y162" s="4"/>
       <c r="Z162" s="4"/>
-      <c r="AA162" s="4"/>
-    </row>
-    <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>242</v>
       </c>
@@ -11038,9 +10753,8 @@
       <c r="X163" s="4"/>
       <c r="Y163" s="4"/>
       <c r="Z163" s="4"/>
-      <c r="AA163" s="4"/>
-    </row>
-    <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>243</v>
       </c>
@@ -11101,9 +10815,8 @@
       <c r="X164" s="4"/>
       <c r="Y164" s="4"/>
       <c r="Z164" s="4"/>
-      <c r="AA164" s="4"/>
-    </row>
-    <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>244</v>
       </c>
@@ -11164,9 +10877,8 @@
       <c r="X165" s="4"/>
       <c r="Y165" s="4"/>
       <c r="Z165" s="4"/>
-      <c r="AA165" s="4"/>
-    </row>
-    <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>245</v>
       </c>
@@ -11227,9 +10939,8 @@
       <c r="X166" s="4"/>
       <c r="Y166" s="4"/>
       <c r="Z166" s="4"/>
-      <c r="AA166" s="4"/>
-    </row>
-    <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>247</v>
       </c>
@@ -11290,9 +11001,8 @@
       <c r="X167" s="4"/>
       <c r="Y167" s="4"/>
       <c r="Z167" s="4"/>
-      <c r="AA167" s="4"/>
-    </row>
-    <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>248</v>
       </c>
@@ -11353,9 +11063,8 @@
       <c r="X168" s="4"/>
       <c r="Y168" s="4"/>
       <c r="Z168" s="4"/>
-      <c r="AA168" s="4"/>
-    </row>
-    <row r="169" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>249</v>
       </c>
@@ -11416,9 +11125,8 @@
       <c r="X169" s="4"/>
       <c r="Y169" s="4"/>
       <c r="Z169" s="4"/>
-      <c r="AA169" s="4"/>
-    </row>
-    <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>250</v>
       </c>
@@ -11479,9 +11187,8 @@
       <c r="X170" s="4"/>
       <c r="Y170" s="4"/>
       <c r="Z170" s="4"/>
-      <c r="AA170" s="4"/>
-    </row>
-    <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>251</v>
       </c>
@@ -11542,9 +11249,8 @@
       <c r="X171" s="4"/>
       <c r="Y171" s="4"/>
       <c r="Z171" s="4"/>
-      <c r="AA171" s="4"/>
-    </row>
-    <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>253</v>
       </c>
@@ -11605,9 +11311,8 @@
       <c r="X172" s="4"/>
       <c r="Y172" s="4"/>
       <c r="Z172" s="4"/>
-      <c r="AA172" s="4"/>
-    </row>
-    <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>254</v>
       </c>
@@ -11668,9 +11373,8 @@
       <c r="X173" s="4"/>
       <c r="Y173" s="4"/>
       <c r="Z173" s="4"/>
-      <c r="AA173" s="4"/>
-    </row>
-    <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>255</v>
       </c>
@@ -11731,9 +11435,8 @@
       <c r="X174" s="4"/>
       <c r="Y174" s="4"/>
       <c r="Z174" s="4"/>
-      <c r="AA174" s="4"/>
-    </row>
-    <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>256</v>
       </c>
@@ -11794,9 +11497,8 @@
       <c r="X175" s="4"/>
       <c r="Y175" s="4"/>
       <c r="Z175" s="4"/>
-      <c r="AA175" s="4"/>
-    </row>
-    <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>257</v>
       </c>
@@ -11857,9 +11559,8 @@
       <c r="X176" s="4"/>
       <c r="Y176" s="4"/>
       <c r="Z176" s="4"/>
-      <c r="AA176" s="4"/>
-    </row>
-    <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>258</v>
       </c>
@@ -11920,9 +11621,8 @@
       <c r="X177" s="4"/>
       <c r="Y177" s="4"/>
       <c r="Z177" s="4"/>
-      <c r="AA177" s="4"/>
-    </row>
-    <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
         <v>259</v>
       </c>
@@ -11983,9 +11683,8 @@
       <c r="X178" s="4"/>
       <c r="Y178" s="4"/>
       <c r="Z178" s="4"/>
-      <c r="AA178" s="4"/>
-    </row>
-    <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>260</v>
       </c>
@@ -12046,9 +11745,8 @@
       <c r="X179" s="4"/>
       <c r="Y179" s="4"/>
       <c r="Z179" s="4"/>
-      <c r="AA179" s="4"/>
-    </row>
-    <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
         <v>261</v>
       </c>
@@ -12109,9 +11807,8 @@
       <c r="X180" s="4"/>
       <c r="Y180" s="4"/>
       <c r="Z180" s="4"/>
-      <c r="AA180" s="4"/>
-    </row>
-    <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
         <v>263</v>
       </c>
@@ -12172,9 +11869,8 @@
       <c r="X181" s="4"/>
       <c r="Y181" s="4"/>
       <c r="Z181" s="4"/>
-      <c r="AA181" s="4"/>
-    </row>
-    <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
         <v>264</v>
       </c>
@@ -12235,9 +11931,8 @@
       <c r="X182" s="4"/>
       <c r="Y182" s="4"/>
       <c r="Z182" s="4"/>
-      <c r="AA182" s="4"/>
-    </row>
-    <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
         <v>265</v>
       </c>
@@ -12298,10 +11993,9 @@
       <c r="X183" s="4"/>
       <c r="Y183" s="4"/>
       <c r="Z183" s="4"/>
-      <c r="AA183" s="4"/>
-    </row>
-    <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="16">
+    </row>
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="15">
         <v>266</v>
       </c>
       <c r="B184" s="9">
@@ -12350,9 +12044,7 @@
       <c r="O184" s="4">
         <v>68</v>
       </c>
-      <c r="P184" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="P184" s="4"/>
       <c r="Q184" s="4"/>
       <c r="R184" s="4"/>
       <c r="S184" s="4"/>
@@ -12363,9 +12055,8 @@
       <c r="X184" s="4"/>
       <c r="Y184" s="4"/>
       <c r="Z184" s="4"/>
-      <c r="AA184" s="4"/>
-    </row>
-    <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4">
         <v>267</v>
       </c>
@@ -12426,9 +12117,8 @@
       <c r="X185" s="4"/>
       <c r="Y185" s="4"/>
       <c r="Z185" s="4"/>
-      <c r="AA185" s="4"/>
-    </row>
-    <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
         <v>268</v>
       </c>
@@ -12489,9 +12179,8 @@
       <c r="X186" s="4"/>
       <c r="Y186" s="4"/>
       <c r="Z186" s="4"/>
-      <c r="AA186" s="4"/>
-    </row>
-    <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
         <v>269</v>
       </c>
@@ -12552,9 +12241,8 @@
       <c r="X187" s="4"/>
       <c r="Y187" s="4"/>
       <c r="Z187" s="4"/>
-      <c r="AA187" s="4"/>
-    </row>
-    <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
         <v>270</v>
       </c>
@@ -12615,9 +12303,8 @@
       <c r="X188" s="4"/>
       <c r="Y188" s="4"/>
       <c r="Z188" s="4"/>
-      <c r="AA188" s="4"/>
-    </row>
-    <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
         <v>271</v>
       </c>
@@ -12678,9 +12365,8 @@
       <c r="X189" s="4"/>
       <c r="Y189" s="4"/>
       <c r="Z189" s="4"/>
-      <c r="AA189" s="4"/>
-    </row>
-    <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
         <v>272</v>
       </c>
@@ -12741,9 +12427,8 @@
       <c r="X190" s="4"/>
       <c r="Y190" s="4"/>
       <c r="Z190" s="4"/>
-      <c r="AA190" s="4"/>
-    </row>
-    <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>273</v>
       </c>
@@ -12804,9 +12489,8 @@
       <c r="X191" s="4"/>
       <c r="Y191" s="4"/>
       <c r="Z191" s="4"/>
-      <c r="AA191" s="4"/>
-    </row>
-    <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
         <v>278</v>
       </c>
@@ -12867,9 +12551,8 @@
       <c r="X192" s="4"/>
       <c r="Y192" s="4"/>
       <c r="Z192" s="4"/>
-      <c r="AA192" s="4"/>
-    </row>
-    <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
         <v>279</v>
       </c>
@@ -12930,9 +12613,8 @@
       <c r="X193" s="4"/>
       <c r="Y193" s="4"/>
       <c r="Z193" s="4"/>
-      <c r="AA193" s="4"/>
-    </row>
-    <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
         <v>282</v>
       </c>
@@ -12993,9 +12675,8 @@
       <c r="X194" s="4"/>
       <c r="Y194" s="4"/>
       <c r="Z194" s="4"/>
-      <c r="AA194" s="4"/>
-    </row>
-    <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
         <v>283</v>
       </c>
@@ -13043,9 +12724,7 @@
       <c r="O195" s="4">
         <v>64</v>
       </c>
-      <c r="P195" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="P195" s="4"/>
       <c r="Q195" s="4"/>
       <c r="R195" s="4"/>
       <c r="S195" s="4"/>
@@ -13056,9 +12735,8 @@
       <c r="X195" s="4"/>
       <c r="Y195" s="4"/>
       <c r="Z195" s="4"/>
-      <c r="AA195" s="4"/>
-    </row>
-    <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
         <v>285</v>
       </c>
@@ -13119,9 +12797,8 @@
       <c r="X196" s="4"/>
       <c r="Y196" s="4"/>
       <c r="Z196" s="4"/>
-      <c r="AA196" s="4"/>
-    </row>
-    <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
         <v>287</v>
       </c>
@@ -13182,9 +12859,8 @@
       <c r="X197" s="4"/>
       <c r="Y197" s="4"/>
       <c r="Z197" s="4"/>
-      <c r="AA197" s="4"/>
-    </row>
-    <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
         <v>288</v>
       </c>
@@ -13245,9 +12921,8 @@
       <c r="X198" s="4"/>
       <c r="Y198" s="4"/>
       <c r="Z198" s="4"/>
-      <c r="AA198" s="4"/>
-    </row>
-    <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
         <v>289</v>
       </c>
@@ -13308,9 +12983,8 @@
       <c r="X199" s="4"/>
       <c r="Y199" s="4"/>
       <c r="Z199" s="4"/>
-      <c r="AA199" s="4"/>
-    </row>
-    <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>290</v>
       </c>
@@ -13371,9 +13045,8 @@
       <c r="X200" s="4"/>
       <c r="Y200" s="4"/>
       <c r="Z200" s="4"/>
-      <c r="AA200" s="4"/>
-    </row>
-    <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
         <v>292</v>
       </c>
@@ -13434,9 +13107,8 @@
       <c r="X201" s="4"/>
       <c r="Y201" s="4"/>
       <c r="Z201" s="4"/>
-      <c r="AA201" s="4"/>
-    </row>
-    <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
         <v>293</v>
       </c>
@@ -13497,9 +13169,8 @@
       <c r="X202" s="4"/>
       <c r="Y202" s="4"/>
       <c r="Z202" s="4"/>
-      <c r="AA202" s="4"/>
-    </row>
-    <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
         <v>295</v>
       </c>
@@ -13560,9 +13231,8 @@
       <c r="X203" s="4"/>
       <c r="Y203" s="4"/>
       <c r="Z203" s="4"/>
-      <c r="AA203" s="4"/>
-    </row>
-    <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
         <v>296</v>
       </c>
@@ -13623,9 +13293,8 @@
       <c r="X204" s="4"/>
       <c r="Y204" s="4"/>
       <c r="Z204" s="4"/>
-      <c r="AA204" s="4"/>
-    </row>
-    <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
         <v>297</v>
       </c>
@@ -13686,9 +13355,8 @@
       <c r="X205" s="4"/>
       <c r="Y205" s="4"/>
       <c r="Z205" s="4"/>
-      <c r="AA205" s="4"/>
-    </row>
-    <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>298</v>
       </c>
@@ -13749,9 +13417,8 @@
       <c r="X206" s="4"/>
       <c r="Y206" s="4"/>
       <c r="Z206" s="4"/>
-      <c r="AA206" s="4"/>
-    </row>
-    <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <v>302</v>
       </c>
@@ -13812,9 +13479,8 @@
       <c r="X207" s="4"/>
       <c r="Y207" s="4"/>
       <c r="Z207" s="4"/>
-      <c r="AA207" s="4"/>
-    </row>
-    <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
         <v>303</v>
       </c>
@@ -13875,9 +13541,8 @@
       <c r="X208" s="4"/>
       <c r="Y208" s="4"/>
       <c r="Z208" s="4"/>
-      <c r="AA208" s="4"/>
-    </row>
-    <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
         <v>304</v>
       </c>
@@ -13938,9 +13603,8 @@
       <c r="X209" s="4"/>
       <c r="Y209" s="4"/>
       <c r="Z209" s="4"/>
-      <c r="AA209" s="4"/>
-    </row>
-    <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
         <v>305</v>
       </c>
@@ -14001,9 +13665,8 @@
       <c r="X210" s="4"/>
       <c r="Y210" s="4"/>
       <c r="Z210" s="4"/>
-      <c r="AA210" s="4"/>
-    </row>
-    <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
         <v>306</v>
       </c>
@@ -14064,9 +13727,8 @@
       <c r="X211" s="4"/>
       <c r="Y211" s="4"/>
       <c r="Z211" s="4"/>
-      <c r="AA211" s="4"/>
-    </row>
-    <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>307</v>
       </c>
@@ -14127,10 +13789,9 @@
       <c r="X212" s="4"/>
       <c r="Y212" s="4"/>
       <c r="Z212" s="4"/>
-      <c r="AA212" s="4"/>
-    </row>
-    <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="16">
+    </row>
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="15">
         <v>308</v>
       </c>
       <c r="B213" s="6">
@@ -14179,9 +13840,7 @@
       <c r="O213" s="4">
         <v>55</v>
       </c>
-      <c r="P213" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="P213" s="4"/>
       <c r="Q213" s="4"/>
       <c r="R213" s="4"/>
       <c r="S213" s="4"/>
@@ -14192,9 +13851,8 @@
       <c r="X213" s="4"/>
       <c r="Y213" s="4"/>
       <c r="Z213" s="4"/>
-      <c r="AA213" s="4"/>
-    </row>
-    <row r="214" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
         <v>309</v>
       </c>
@@ -14255,9 +13913,8 @@
       <c r="X214" s="4"/>
       <c r="Y214" s="4"/>
       <c r="Z214" s="4"/>
-      <c r="AA214" s="4"/>
-    </row>
-    <row r="215" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>310</v>
       </c>
@@ -14318,9 +13975,8 @@
       <c r="X215" s="4"/>
       <c r="Y215" s="4"/>
       <c r="Z215" s="4"/>
-      <c r="AA215" s="4"/>
-    </row>
-    <row r="216" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
         <v>311</v>
       </c>
@@ -14381,9 +14037,8 @@
       <c r="X216" s="4"/>
       <c r="Y216" s="4"/>
       <c r="Z216" s="4"/>
-      <c r="AA216" s="4"/>
-    </row>
-    <row r="217" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <v>312</v>
       </c>
@@ -14444,9 +14099,8 @@
       <c r="X217" s="4"/>
       <c r="Y217" s="4"/>
       <c r="Z217" s="4"/>
-      <c r="AA217" s="4"/>
-    </row>
-    <row r="218" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>313</v>
       </c>
@@ -14507,9 +14161,8 @@
       <c r="X218" s="4"/>
       <c r="Y218" s="4"/>
       <c r="Z218" s="4"/>
-      <c r="AA218" s="4"/>
-    </row>
-    <row r="219" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
         <v>314</v>
       </c>
@@ -14570,9 +14223,8 @@
       <c r="X219" s="4"/>
       <c r="Y219" s="4"/>
       <c r="Z219" s="4"/>
-      <c r="AA219" s="4"/>
-    </row>
-    <row r="220" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
         <v>317</v>
       </c>
@@ -14633,9 +14285,8 @@
       <c r="X220" s="4"/>
       <c r="Y220" s="4"/>
       <c r="Z220" s="4"/>
-      <c r="AA220" s="4"/>
-    </row>
-    <row r="221" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
         <v>320</v>
       </c>
@@ -14696,10 +14347,9 @@
       <c r="X221" s="4"/>
       <c r="Y221" s="4"/>
       <c r="Z221" s="4"/>
-      <c r="AA221" s="4"/>
-    </row>
-    <row r="222" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="16">
+    </row>
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="15">
         <v>321</v>
       </c>
       <c r="B222" s="9">
@@ -14748,9 +14398,7 @@
       <c r="O222" s="4">
         <v>62</v>
       </c>
-      <c r="P222" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="P222" s="4"/>
       <c r="Q222" s="4"/>
       <c r="R222" s="4"/>
       <c r="S222" s="4"/>
@@ -14761,10 +14409,9 @@
       <c r="X222" s="4"/>
       <c r="Y222" s="4"/>
       <c r="Z222" s="4"/>
-      <c r="AA222" s="4"/>
-    </row>
-    <row r="223" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="16">
+    </row>
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="15">
         <v>322</v>
       </c>
       <c r="B223" s="6">
@@ -14813,9 +14460,7 @@
       <c r="O223" s="4">
         <v>72</v>
       </c>
-      <c r="P223" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="P223" s="4"/>
       <c r="Q223" s="4"/>
       <c r="R223" s="4"/>
       <c r="S223" s="4"/>
@@ -14826,9 +14471,8 @@
       <c r="X223" s="4"/>
       <c r="Y223" s="4"/>
       <c r="Z223" s="4"/>
-      <c r="AA223" s="4"/>
-    </row>
-    <row r="224" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>323</v>
       </c>
@@ -14889,9 +14533,8 @@
       <c r="X224" s="4"/>
       <c r="Y224" s="4"/>
       <c r="Z224" s="4"/>
-      <c r="AA224" s="4"/>
-    </row>
-    <row r="225" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>324</v>
       </c>
@@ -14952,9 +14595,8 @@
       <c r="X225" s="4"/>
       <c r="Y225" s="4"/>
       <c r="Z225" s="4"/>
-      <c r="AA225" s="4"/>
-    </row>
-    <row r="226" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
         <v>325</v>
       </c>
@@ -15015,9 +14657,8 @@
       <c r="X226" s="4"/>
       <c r="Y226" s="4"/>
       <c r="Z226" s="4"/>
-      <c r="AA226" s="4"/>
-    </row>
-    <row r="227" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <v>326</v>
       </c>
@@ -15078,9 +14719,8 @@
       <c r="X227" s="4"/>
       <c r="Y227" s="4"/>
       <c r="Z227" s="4"/>
-      <c r="AA227" s="4"/>
-    </row>
-    <row r="228" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
         <v>327</v>
       </c>
@@ -15141,9 +14781,8 @@
       <c r="X228" s="4"/>
       <c r="Y228" s="4"/>
       <c r="Z228" s="4"/>
-      <c r="AA228" s="4"/>
-    </row>
-    <row r="229" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
         <v>330</v>
       </c>
@@ -15204,9 +14843,8 @@
       <c r="X229" s="4"/>
       <c r="Y229" s="4"/>
       <c r="Z229" s="4"/>
-      <c r="AA229" s="4"/>
-    </row>
-    <row r="230" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
         <v>331</v>
       </c>
@@ -15267,9 +14905,8 @@
       <c r="X230" s="4"/>
       <c r="Y230" s="4"/>
       <c r="Z230" s="4"/>
-      <c r="AA230" s="4"/>
-    </row>
-    <row r="231" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
         <v>332</v>
       </c>
@@ -15330,9 +14967,8 @@
       <c r="X231" s="4"/>
       <c r="Y231" s="4"/>
       <c r="Z231" s="4"/>
-      <c r="AA231" s="4"/>
-    </row>
-    <row r="232" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
         <v>333</v>
       </c>
@@ -15393,9 +15029,8 @@
       <c r="X232" s="4"/>
       <c r="Y232" s="4"/>
       <c r="Z232" s="4"/>
-      <c r="AA232" s="4"/>
-    </row>
-    <row r="233" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
         <v>335</v>
       </c>
@@ -15456,9 +15091,8 @@
       <c r="X233" s="4"/>
       <c r="Y233" s="4"/>
       <c r="Z233" s="4"/>
-      <c r="AA233" s="4"/>
-    </row>
-    <row r="234" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
         <v>336</v>
       </c>
@@ -15519,9 +15153,8 @@
       <c r="X234" s="4"/>
       <c r="Y234" s="4"/>
       <c r="Z234" s="4"/>
-      <c r="AA234" s="4"/>
-    </row>
-    <row r="235" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
         <v>337</v>
       </c>
@@ -15582,9 +15215,8 @@
       <c r="X235" s="4"/>
       <c r="Y235" s="4"/>
       <c r="Z235" s="4"/>
-      <c r="AA235" s="4"/>
-    </row>
-    <row r="236" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
         <v>338</v>
       </c>
@@ -15645,9 +15277,8 @@
       <c r="X236" s="4"/>
       <c r="Y236" s="4"/>
       <c r="Z236" s="4"/>
-      <c r="AA236" s="4"/>
-    </row>
-    <row r="237" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
         <v>339</v>
       </c>
@@ -15708,9 +15339,8 @@
       <c r="X237" s="4"/>
       <c r="Y237" s="4"/>
       <c r="Z237" s="4"/>
-      <c r="AA237" s="4"/>
-    </row>
-    <row r="238" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
         <v>340</v>
       </c>
@@ -15771,9 +15401,8 @@
       <c r="X238" s="4"/>
       <c r="Y238" s="4"/>
       <c r="Z238" s="4"/>
-      <c r="AA238" s="4"/>
-    </row>
-    <row r="239" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
         <v>341</v>
       </c>
@@ -15834,9 +15463,8 @@
       <c r="X239" s="4"/>
       <c r="Y239" s="4"/>
       <c r="Z239" s="4"/>
-      <c r="AA239" s="4"/>
-    </row>
-    <row r="240" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
         <v>342</v>
       </c>
@@ -15897,10 +15525,9 @@
       <c r="X240" s="4"/>
       <c r="Y240" s="4"/>
       <c r="Z240" s="4"/>
-      <c r="AA240" s="4"/>
-    </row>
-    <row r="241" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="16">
+    </row>
+    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="15">
         <v>345</v>
       </c>
       <c r="B241" s="6">
@@ -15949,9 +15576,7 @@
       <c r="O241" s="4">
         <v>48</v>
       </c>
-      <c r="P241" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="P241" s="4"/>
       <c r="Q241" s="4"/>
       <c r="R241" s="4"/>
       <c r="S241" s="4"/>
@@ -15962,9 +15587,8 @@
       <c r="X241" s="4"/>
       <c r="Y241" s="4"/>
       <c r="Z241" s="4"/>
-      <c r="AA241" s="4"/>
-    </row>
-    <row r="242" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
         <v>346</v>
       </c>
@@ -16025,9 +15649,8 @@
       <c r="X242" s="4"/>
       <c r="Y242" s="4"/>
       <c r="Z242" s="4"/>
-      <c r="AA242" s="4"/>
-    </row>
-    <row r="243" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
         <v>348</v>
       </c>
@@ -16088,9 +15711,8 @@
       <c r="X243" s="4"/>
       <c r="Y243" s="4"/>
       <c r="Z243" s="4"/>
-      <c r="AA243" s="4"/>
-    </row>
-    <row r="244" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
         <v>349</v>
       </c>
@@ -16151,9 +15773,8 @@
       <c r="X244" s="4"/>
       <c r="Y244" s="4"/>
       <c r="Z244" s="4"/>
-      <c r="AA244" s="4"/>
-    </row>
-    <row r="245" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
         <v>350</v>
       </c>
@@ -16214,9 +15835,8 @@
       <c r="X245" s="4"/>
       <c r="Y245" s="4"/>
       <c r="Z245" s="4"/>
-      <c r="AA245" s="4"/>
-    </row>
-    <row r="246" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
         <v>351</v>
       </c>
@@ -16277,9 +15897,8 @@
       <c r="X246" s="4"/>
       <c r="Y246" s="4"/>
       <c r="Z246" s="4"/>
-      <c r="AA246" s="4"/>
-    </row>
-    <row r="247" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
         <v>352</v>
       </c>
@@ -16340,9 +15959,8 @@
       <c r="X247" s="4"/>
       <c r="Y247" s="4"/>
       <c r="Z247" s="4"/>
-      <c r="AA247" s="4"/>
-    </row>
-    <row r="248" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
         <v>353</v>
       </c>
@@ -16403,9 +16021,8 @@
       <c r="X248" s="4"/>
       <c r="Y248" s="4"/>
       <c r="Z248" s="4"/>
-      <c r="AA248" s="4"/>
-    </row>
-    <row r="249" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
         <v>355</v>
       </c>
@@ -16466,9 +16083,8 @@
       <c r="X249" s="4"/>
       <c r="Y249" s="4"/>
       <c r="Z249" s="4"/>
-      <c r="AA249" s="4"/>
-    </row>
-    <row r="250" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4">
         <v>356</v>
       </c>
@@ -16529,9 +16145,8 @@
       <c r="X250" s="4"/>
       <c r="Y250" s="4"/>
       <c r="Z250" s="4"/>
-      <c r="AA250" s="4"/>
-    </row>
-    <row r="251" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
         <v>358</v>
       </c>
@@ -16592,9 +16207,8 @@
       <c r="X251" s="4"/>
       <c r="Y251" s="4"/>
       <c r="Z251" s="4"/>
-      <c r="AA251" s="4"/>
-    </row>
-    <row r="252" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4">
         <v>359</v>
       </c>
@@ -16655,9 +16269,8 @@
       <c r="X252" s="4"/>
       <c r="Y252" s="4"/>
       <c r="Z252" s="4"/>
-      <c r="AA252" s="4"/>
-    </row>
-    <row r="253" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
         <v>362</v>
       </c>
@@ -16718,9 +16331,8 @@
       <c r="X253" s="4"/>
       <c r="Y253" s="4"/>
       <c r="Z253" s="4"/>
-      <c r="AA253" s="4"/>
-    </row>
-    <row r="254" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4">
         <v>363</v>
       </c>
@@ -16781,11 +16393,10 @@
       <c r="X254" s="4"/>
       <c r="Y254" s="4"/>
       <c r="Z254" s="4"/>
-      <c r="AA254" s="4"/>
-    </row>
-    <row r="255" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B255" s="6"/>
       <c r="C255" s="7">
@@ -16842,11 +16453,10 @@
       <c r="X255" s="4"/>
       <c r="Y255" s="4"/>
       <c r="Z255" s="4"/>
-      <c r="AA255" s="4"/>
-    </row>
-    <row r="256" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B256" s="9"/>
       <c r="C256" s="7">
@@ -16903,15 +16513,14 @@
       <c r="X256" s="4"/>
       <c r="Y256" s="4"/>
       <c r="Z256" s="4"/>
-      <c r="AA256" s="4"/>
-    </row>
-    <row r="257" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A257" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A257" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B257" s="4"/>
       <c r="C257" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D257" s="4">
         <v>36</v>
@@ -16936,26 +16545,24 @@
         <v>76.923076923076934</v>
       </c>
       <c r="J257" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K257" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L257" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M257" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N257" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O257" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P257" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="P257" s="4"/>
       <c r="Q257" s="4"/>
       <c r="R257" s="4"/>
       <c r="S257" s="4"/>
@@ -16966,15 +16573,14 @@
       <c r="X257" s="4"/>
       <c r="Y257" s="4"/>
       <c r="Z257" s="4"/>
-      <c r="AA257" s="4"/>
-    </row>
-    <row r="258" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A258" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B258" s="4"/>
       <c r="C258" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D258" s="4">
         <v>43</v>
@@ -16999,26 +16605,24 @@
         <v>80.769230769230774</v>
       </c>
       <c r="J258" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K258" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L258" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M258" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N258" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O258" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P258" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="P258" s="4"/>
       <c r="Q258" s="4"/>
       <c r="R258" s="4"/>
       <c r="S258" s="4"/>
@@ -17029,15 +16633,14 @@
       <c r="X258" s="4"/>
       <c r="Y258" s="4"/>
       <c r="Z258" s="4"/>
-      <c r="AA258" s="4"/>
-    </row>
-    <row r="259" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B259" s="4"/>
       <c r="C259" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D259" s="4">
         <v>35</v>
@@ -17062,26 +16665,24 @@
         <v>72.115384615384613</v>
       </c>
       <c r="J259" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K259" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L259" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M259" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N259" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O259" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P259" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="P259" s="4"/>
       <c r="Q259" s="4"/>
       <c r="R259" s="4"/>
       <c r="S259" s="4"/>
@@ -17092,15 +16693,14 @@
       <c r="X259" s="4"/>
       <c r="Y259" s="4"/>
       <c r="Z259" s="4"/>
-      <c r="AA259" s="4"/>
-    </row>
-    <row r="260" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A260" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A260" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B260" s="4"/>
       <c r="C260" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D260" s="4">
         <v>27</v>
@@ -17125,26 +16725,24 @@
         <v>56.730769230769226</v>
       </c>
       <c r="J260" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K260" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L260" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M260" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N260" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O260" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P260" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="P260" s="4"/>
       <c r="Q260" s="4"/>
       <c r="R260" s="4"/>
       <c r="S260" s="4"/>
@@ -17155,15 +16753,14 @@
       <c r="X260" s="4"/>
       <c r="Y260" s="4"/>
       <c r="Z260" s="4"/>
-      <c r="AA260" s="4"/>
-    </row>
-    <row r="261" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A261" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A261" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B261" s="4"/>
       <c r="C261" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D261" s="4">
         <v>32</v>
@@ -17188,26 +16785,24 @@
         <v>65.384615384615387</v>
       </c>
       <c r="J261" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K261" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L261" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M261" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N261" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O261" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P261" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="P261" s="4"/>
       <c r="Q261" s="4"/>
       <c r="R261" s="4"/>
       <c r="S261" s="4"/>
@@ -17218,15 +16813,14 @@
       <c r="X261" s="4"/>
       <c r="Y261" s="4"/>
       <c r="Z261" s="4"/>
-      <c r="AA261" s="4"/>
-    </row>
-    <row r="262" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A262" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B262" s="4"/>
       <c r="C262" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D262" s="4">
         <v>31</v>
@@ -17251,26 +16845,24 @@
         <v>67.307692307692307</v>
       </c>
       <c r="J262" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K262" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L262" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M262" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N262" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O262" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P262" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="P262" s="4"/>
       <c r="Q262" s="4"/>
       <c r="R262" s="4"/>
       <c r="S262" s="4"/>
@@ -17281,15 +16873,14 @@
       <c r="X262" s="4"/>
       <c r="Y262" s="4"/>
       <c r="Z262" s="4"/>
-      <c r="AA262" s="4"/>
-    </row>
-    <row r="263" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A263" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B263" s="4"/>
       <c r="C263" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D263" s="4">
         <v>37</v>
@@ -17314,26 +16905,24 @@
         <v>71.15384615384616</v>
       </c>
       <c r="J263" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K263" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L263" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M263" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N263" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O263" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P263" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="P263" s="4"/>
       <c r="Q263" s="4"/>
       <c r="R263" s="4"/>
       <c r="S263" s="4"/>
@@ -17344,15 +16933,14 @@
       <c r="X263" s="4"/>
       <c r="Y263" s="4"/>
       <c r="Z263" s="4"/>
-      <c r="AA263" s="4"/>
-    </row>
-    <row r="264" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A264" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A264" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B264" s="4"/>
       <c r="C264" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D264" s="4">
         <v>42</v>
@@ -17377,26 +16965,24 @@
         <v>80.769230769230774</v>
       </c>
       <c r="J264" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K264" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L264" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M264" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N264" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O264" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P264" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="P264" s="4"/>
       <c r="Q264" s="4"/>
       <c r="R264" s="4"/>
       <c r="S264" s="4"/>
@@ -17407,15 +16993,14 @@
       <c r="X264" s="4"/>
       <c r="Y264" s="4"/>
       <c r="Z264" s="4"/>
-      <c r="AA264" s="4"/>
-    </row>
-    <row r="265" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A265" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B265" s="4"/>
       <c r="C265" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D265" s="4">
         <v>43</v>
@@ -17440,26 +17025,24 @@
         <v>83.65384615384616</v>
       </c>
       <c r="J265" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K265" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L265" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M265" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N265" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O265" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P265" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="P265" s="4"/>
       <c r="Q265" s="4"/>
       <c r="R265" s="4"/>
       <c r="S265" s="4"/>
@@ -17470,15 +17053,14 @@
       <c r="X265" s="4"/>
       <c r="Y265" s="4"/>
       <c r="Z265" s="4"/>
-      <c r="AA265" s="4"/>
-    </row>
-    <row r="266" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A266" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A266" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B266" s="4"/>
       <c r="C266" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D266" s="4">
         <v>36</v>
@@ -17503,26 +17085,24 @@
         <v>77.884615384615387</v>
       </c>
       <c r="J266" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K266" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L266" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M266" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N266" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O266" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P266" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="P266" s="4"/>
       <c r="Q266" s="4"/>
       <c r="R266" s="4"/>
       <c r="S266" s="4"/>
@@ -17533,15 +17113,14 @@
       <c r="X266" s="4"/>
       <c r="Y266" s="4"/>
       <c r="Z266" s="4"/>
-      <c r="AA266" s="4"/>
-    </row>
-    <row r="267" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A267" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B267" s="4"/>
       <c r="C267" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D267" s="4">
         <v>36</v>
@@ -17566,26 +17145,24 @@
         <v>69.230769230769226</v>
       </c>
       <c r="J267" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K267" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L267" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M267" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N267" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O267" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P267" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="P267" s="4"/>
       <c r="Q267" s="4"/>
       <c r="R267" s="4"/>
       <c r="S267" s="4"/>
@@ -17596,15 +17173,14 @@
       <c r="X267" s="4"/>
       <c r="Y267" s="4"/>
       <c r="Z267" s="4"/>
-      <c r="AA267" s="4"/>
-    </row>
-    <row r="268" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A268" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A268" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B268" s="4"/>
       <c r="C268" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D268" s="4">
         <v>39</v>
@@ -17629,26 +17205,24 @@
         <v>82.692307692307693</v>
       </c>
       <c r="J268" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K268" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L268" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M268" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N268" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O268" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P268" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="P268" s="4"/>
       <c r="Q268" s="4"/>
       <c r="R268" s="4"/>
       <c r="S268" s="4"/>
@@ -17659,15 +17233,14 @@
       <c r="X268" s="4"/>
       <c r="Y268" s="4"/>
       <c r="Z268" s="4"/>
-      <c r="AA268" s="4"/>
-    </row>
-    <row r="269" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A269" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A269" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B269" s="4"/>
       <c r="C269" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D269" s="4">
         <v>37</v>
@@ -17692,26 +17265,24 @@
         <v>68.269230769230774</v>
       </c>
       <c r="J269" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K269" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L269" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M269" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N269" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O269" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P269" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="P269" s="4"/>
       <c r="Q269" s="4"/>
       <c r="R269" s="4"/>
       <c r="S269" s="4"/>
@@ -17722,15 +17293,14 @@
       <c r="X269" s="4"/>
       <c r="Y269" s="4"/>
       <c r="Z269" s="4"/>
-      <c r="AA269" s="4"/>
-    </row>
-    <row r="270" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A270" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A270" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B270" s="4"/>
       <c r="C270" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D270" s="4">
         <v>39</v>
@@ -17755,26 +17325,24 @@
         <v>67.307692307692307</v>
       </c>
       <c r="J270" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K270" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L270" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M270" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N270" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O270" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P270" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="P270" s="4"/>
       <c r="Q270" s="4"/>
       <c r="R270" s="4"/>
       <c r="S270" s="4"/>
@@ -17785,15 +17353,14 @@
       <c r="X270" s="4"/>
       <c r="Y270" s="4"/>
       <c r="Z270" s="4"/>
-      <c r="AA270" s="4"/>
-    </row>
-    <row r="271" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A271" s="18" t="s">
-        <v>39</v>
+    </row>
+    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B271" s="4"/>
       <c r="C271" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D271" s="4">
         <v>36</v>
@@ -17818,26 +17385,24 @@
         <v>64.423076923076934</v>
       </c>
       <c r="J271" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="K271" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="L271" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M271" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N271" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="O271" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P271" s="4" t="s">
-        <v>40</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="P271" s="4"/>
       <c r="Q271" s="4"/>
       <c r="R271" s="4"/>
       <c r="S271" s="4"/>
@@ -17848,10 +17413,9 @@
       <c r="X271" s="4"/>
       <c r="Y271" s="4"/>
       <c r="Z271" s="4"/>
-      <c r="AA271" s="4"/>
-    </row>
-    <row r="272" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A272" s="18"/>
+    </row>
+    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="17"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4">
@@ -17892,7 +17456,6 @@
       <c r="X272" s="4"/>
       <c r="Y272" s="4"/>
       <c r="Z272" s="4"/>
-      <c r="AA272" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
